--- a/Andrew-annotations/GCI_Q3_2013.xlsx
+++ b/Andrew-annotations/GCI_Q3_2013.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46604404-58A4-440C-87CB-BD2A023FAB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833E9578-562F-4A71-9A17-FB9CC3936CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,19 +643,19 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -675,22 +675,22 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
@@ -719,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -751,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -1027,7 +1027,7 @@
         <v>38</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1065,13 +1065,13 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1094,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1135,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1167,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1231,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1286,16 +1286,16 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1353,10 +1353,10 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>2</v>
